--- a/workfile/锐安项目文档/收尾文档/20191107工作报告.xlsx
+++ b/workfile/锐安项目文档/收尾文档/20191107工作报告.xlsx
@@ -15,7 +15,8 @@
     <sheet name="BI" sheetId="1" r:id="rId1"/>
     <sheet name="移动端" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -223,11 +224,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解决中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日报删除修改状态逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,10 +886,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1022,33 +1023,33 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="16" customFormat="1">
-      <c r="A17" s="16" t="s">
+    <row r="18" spans="1:3" s="16" customFormat="1">
+      <c r="A18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B18" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
         <v>43776</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>39</v>
       </c>
     </row>
